--- a/Gerbers/ANDgate-CPL-jlcpcb-v1.3.xlsx
+++ b/Gerbers/ANDgate-CPL-jlcpcb-v1.3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\github\logicbits\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC94FA51-E039-4259-BD33-02A5014F32F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1DAB5B-2D88-4ACC-B3FF-3C95CA1C5710}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="15900" windowHeight="9160"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15900" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANDgate_top_cpl" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -923,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -985,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
